--- a/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
+++ b/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Понедельник числитель 1 пара (8:30-10:05)</t>
   </si>
   <si>
-    <t>17.07.2023</t>
+    <t>24.07.2023</t>
   </si>
   <si>
     <t>Группа</t>
@@ -38,34 +38,16 @@
     <t>подпись</t>
   </si>
   <si>
-    <t>0К9341</t>
+    <t>0К9391</t>
   </si>
   <si>
-    <t>406</t>
+    <t>406 405 415</t>
   </si>
   <si>
-    <t>Новик</t>
+    <t>Козак Маркевич Чуманевич</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>0К9393</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>Козел</t>
-  </si>
-  <si>
-    <t>0К9591</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>401</t>
   </si>
 </sst>
 </file>
@@ -129,15 +111,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.64362907409668" customWidth="1"/>
+    <col min="2" max="2" width="11.517327308654785" customWidth="1"/>
+    <col min="3" max="3" width="26.337451934814453" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13.392606735229492" customWidth="1"/>
     <col min="6" max="6" width="10.599638938903809" customWidth="1"/>
@@ -193,62 +175,9 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>

--- a/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
+++ b/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
@@ -17,7 +17,7 @@
     <t>Понедельник числитель 1 пара (8:30-10:05)</t>
   </si>
   <si>
-    <t>24.07.2023</t>
+    <t>24.08.2023</t>
   </si>
   <si>
     <t>Группа</t>

--- a/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
+++ b/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Понедельник числитель 1 пара (8:30-10:05)</t>
   </si>
   <si>
-    <t>24.08.2023</t>
+    <t>25.08.2023</t>
   </si>
   <si>
     <t>Группа</t>
@@ -38,16 +38,37 @@
     <t>подпись</t>
   </si>
   <si>
-    <t>0К9391</t>
-  </si>
-  <si>
-    <t>406 405 415</t>
-  </si>
-  <si>
-    <t>Козак Маркевич Чуманевич</t>
+    <t>0К9311</t>
+  </si>
+  <si>
+    <t>403 403</t>
+  </si>
+  <si>
+    <t>Колтуновский Авдеенко</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>0К9191</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Василевская  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>0К9291</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>Бутрим</t>
   </si>
 </sst>
 </file>
@@ -111,15 +132,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.517327308654785" customWidth="1"/>
-    <col min="3" max="3" width="26.337451934814453" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.907114028930664" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13.392606735229492" customWidth="1"/>
     <col min="6" max="6" width="10.599638938903809" customWidth="1"/>
@@ -175,6 +196,42 @@
       </c>
       <c r="F3" s="2"/>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:E1"/>

--- a/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
+++ b/bin/x64/Debug/net7.0-windows/Преподаватели.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Понедельник числитель 1 пара (8:30-10:05)</t>
   </si>
@@ -36,39 +36,6 @@
   </si>
   <si>
     <t>подпись</t>
-  </si>
-  <si>
-    <t>0К9311</t>
-  </si>
-  <si>
-    <t>403 403</t>
-  </si>
-  <si>
-    <t>Колтуновский Авдеенко</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0К9191</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Василевская  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>0К9291</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>Бутрим</t>
   </si>
 </sst>
 </file>
@@ -114,12 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -132,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -140,7 +104,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.907114028930664" customWidth="1"/>
+    <col min="3" max="3" width="21.64362907409668" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13.392606735229492" customWidth="1"/>
     <col min="6" max="6" width="10.599638938903809" customWidth="1"/>
@@ -178,60 +142,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:E1"/>
